--- a/result/deepLearning/parameterTuning_05_02_2016.xlsx
+++ b/result/deepLearning/parameterTuning_05_02_2016.xlsx
@@ -81,6 +81,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -98,12 +99,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -140,12 +147,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -169,7 +184,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -227,54 +242,54 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>74.2414568</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>273.238209</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0.994792678</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>7.25883745E-122</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>0.691476313</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>0.978626533</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>0.997250498</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>0.0727919905</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>0.0203717001</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>0.00248459366</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>0.0760348835</v>
+      <c r="C2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>73.0138194</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>239.549293</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0.99516456</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>8.29495248E-124</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0.65512604</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>0.978830772</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>0.997689622</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>0.0727398209</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>0.0203091837</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>0.00213609762</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>0.0768128717</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -288,51 +303,51 @@
         <v>100</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>71.987443</v>
+        <v>75.9098547</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>261.818814</v>
+        <v>259.539015</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.994243801</v>
+        <v>0.994828212</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>3.06841467E-119</v>
+        <v>4.80185226E-122</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.705225776</v>
+        <v>0.704580257</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.978764525</v>
+        <v>0.978780088</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.997615542</v>
+        <v>0.99755376</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.0735579015</v>
+        <v>0.0729510517</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.0202573712</v>
+        <v>0.020317639</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.00214806804</v>
+        <v>0.00226828983</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0.0776759923</v>
+        <v>0.0759863659</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>100</v>
@@ -344,37 +359,37 @@
         <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>75.9098547</v>
+        <v>35.3707956</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>259.539015</v>
+        <v>152.984817</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.994828212</v>
+        <v>0.994805625</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>4.80185226E-122</v>
+        <v>6.24630276E-122</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.704580257</v>
+        <v>0.32902647</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>0.978780088</v>
+        <v>0.976863269</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0.99755376</v>
+        <v>0.995460971</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0.0729510517</v>
+        <v>0.0776300527</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.020317639</v>
+        <v>0.0204761078</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0.00226828983</v>
+        <v>0.00291449959</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>0.0759863659</v>
+        <v>0.0798644296</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -388,48 +403,48 @@
         <v>100</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>73.0138194</v>
+        <v>74.2414568</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>239.549293</v>
+        <v>273.238209</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.99516456</v>
+        <v>0.994792678</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>8.29495248E-124</v>
+        <v>7.25883745E-122</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.65512604</v>
+        <v>0.691476313</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0.978830772</v>
+        <v>0.978626533</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0.997689622</v>
+        <v>0.997250498</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>0.0727398209</v>
+        <v>0.0727919905</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>0.0203091837</v>
+        <v>0.0203717001</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0.00213609762</v>
+        <v>0.00248459366</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>0.0768128717</v>
+        <v>0.0760348835</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>10</v>
@@ -438,43 +453,43 @@
         <v>100</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>33.623045</v>
+        <v>34.3101783</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>124.327703</v>
+        <v>143.926887</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.993499487</v>
+        <v>0.994632431</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>4.70483133E-116</v>
+        <v>4.52063332E-121</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.350234233</v>
+        <v>0.324479991</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0.977953192</v>
+        <v>0.977581509</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>0.996515071</v>
+        <v>0.99643242</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>0.0773352245</v>
+        <v>0.0782601158</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0.0205599328</v>
+        <v>0.0206584195</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>0.00282408581</v>
+        <v>0.00249965074</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>0.0813045315</v>
+        <v>0.0815234005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -482,7 +497,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>100</v>
@@ -494,95 +509,95 @@
         <v>0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>32.8028712</v>
+        <v>71.987443</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>128.229965</v>
+        <v>261.818814</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.994109628</v>
+        <v>0.994243801</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>1.23203894E-118</v>
+        <v>3.06841467E-119</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.325110328</v>
+        <v>0.705225776</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0.977683127</v>
+        <v>0.978764525</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0.996154989</v>
+        <v>0.997615542</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>0.077462694</v>
+        <v>0.0735579015</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.0206587183</v>
+        <v>0.0202573712</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>0.00306467566</v>
+        <v>0.00214806804</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>0.0814380743</v>
+        <v>0.0776759923</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>31.825564</v>
+        <v>68.7322489</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>124.459401</v>
+        <v>264.392024</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.993744975</v>
+        <v>0.99420125</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>4.61531101E-117</v>
+        <v>4.78507958E-119</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.325130581</v>
+        <v>0.675842122</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.977467291</v>
+        <v>0.977840988</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0.996121802</v>
+        <v>0.996336471</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>0.0780705251</v>
+        <v>0.0736920371</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.0205017417</v>
+        <v>0.0201731385</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>0.00284306911</v>
+        <v>0.00260214795</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>0.0824637085</v>
+        <v>0.0781628553</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>100</v>
@@ -594,45 +609,45 @@
         <v>0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>34.1788204</v>
+        <v>67.7344131</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>131.615653</v>
+        <v>257.012601</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.994171888</v>
+        <v>0.994193227</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>6.48962156E-119</v>
+        <v>5.20132428E-119</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.336936555</v>
+        <v>0.66649505</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0.978054735</v>
+        <v>0.978016692</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.996879105</v>
+        <v>0.996537165</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>0.077212317</v>
+        <v>0.0739502088</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.0205241402</v>
+        <v>0.0200685791</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>0.00249004001</v>
+        <v>0.00241191145</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>0.0809229752</v>
+        <v>0.0782721384</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>100</v>
@@ -644,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>17.3918345</v>
+        <v>33.8656495</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>97.4316317</v>
+        <v>180.087538</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.993854529</v>
+        <v>0.994192396</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>1.58973475E-117</v>
+        <v>5.24641517E-119</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.176097907</v>
+        <v>0.333256253</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0.976876804</v>
+        <v>0.976412106</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>0.995327919</v>
+        <v>0.995058795</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>0.0861180304</v>
+        <v>0.0787937614</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.0214615105</v>
+        <v>0.0203622963</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>0.00353747156</v>
+        <v>0.00306691014</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>0.0862746296</v>
+        <v>0.0805108108</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,49 +697,49 @@
         <v>40</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>17.2133539</v>
+        <v>34.1788204</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>113.632099</v>
+        <v>131.615653</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.992498376</v>
+        <v>0.994171888</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>2.65056899E-112</v>
+        <v>6.48962156E-119</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.192761208</v>
+        <v>0.336936555</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>0.976861773</v>
+        <v>0.978054735</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>0.995306996</v>
+        <v>0.996879105</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>0.0868892023</v>
+        <v>0.077212317</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.0215252002</v>
+        <v>0.0205241402</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>0.00349920741</v>
+        <v>0.00249004001</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>0.0860864218</v>
+        <v>0.0809229752</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,104 +747,104 @@
         <v>40</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>16.9951775</v>
+        <v>32.8028712</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>80.2613222</v>
+        <v>128.229965</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.993829985</v>
+        <v>0.994109628</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>2.02182318E-117</v>
+        <v>1.23203894E-118</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.172428126</v>
+        <v>0.325110328</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>0.97723979</v>
+        <v>0.977683127</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>0.995835134</v>
+        <v>0.996154989</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>0.0848107867</v>
+        <v>0.077462694</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>0.0214533096</v>
+        <v>0.0206587183</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>0.00333519257</v>
+        <v>0.00306467566</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>0.0870187602</v>
+        <v>0.0814380743</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>23.1571578</v>
+        <v>67.303171</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>307.711954</v>
+        <v>234.503877</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.989476313</v>
+        <v>0.994069751</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>1.90118588E-103</v>
+        <v>1.85094054E-118</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.307850965</v>
+        <v>0.669318157</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>0.967599808</v>
+        <v>0.978265829</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>0.987455213</v>
+        <v>0.996863185</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>0.13824584</v>
+        <v>0.0730427139</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.0261409168</v>
+        <v>0.0201284452</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>0.0076682988</v>
+        <v>0.00233477569</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>0.113263504</v>
+        <v>0.078342544</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>7</v>
@@ -838,43 +853,43 @@
         <v>100</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>66.0635875</v>
+        <v>72.3430132</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>257.278446</v>
+        <v>264.84644</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.992952801</v>
+        <v>0.993879033</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>6.12689072E-114</v>
+        <v>1.24928498E-117</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.716799397</v>
+        <v>0.731020893</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>0.978056207</v>
+        <v>0.978363049</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>0.996635175</v>
+        <v>0.997213166</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>0.0748462704</v>
+        <v>0.0760341657</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.0201234068</v>
+        <v>0.0204679336</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>0.00238896342</v>
+        <v>0.00230096525</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>0.07961665</v>
+        <v>0.0802644475</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -882,7 +897,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>100</v>
@@ -894,142 +909,142 @@
         <v>0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>68.7322489</v>
+        <v>34.1220469</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>264.392024</v>
+        <v>176.951177</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.99420125</v>
+        <v>0.993861114</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>4.78507958E-119</v>
+        <v>1.49019191E-117</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.675842122</v>
+        <v>0.345309826</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0.977840988</v>
+        <v>0.97667356</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>0.996336471</v>
+        <v>0.995370828</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>0.0736920371</v>
+        <v>0.0791442364</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.0201731385</v>
+        <v>0.0203490876</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>0.00260214795</v>
+        <v>0.00293011233</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>0.0781628553</v>
+        <v>0.0810683351</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>67.303171</v>
+        <v>17.3918345</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>234.503877</v>
+        <v>97.4316317</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.994069751</v>
+        <v>0.993854529</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>1.85094054E-118</v>
+        <v>1.58973475E-117</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.669318157</v>
+        <v>0.176097907</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>0.978265829</v>
+        <v>0.976876804</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>0.996863185</v>
+        <v>0.995327919</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>0.0730427139</v>
+        <v>0.0861180304</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.0201284452</v>
+        <v>0.0214615105</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>0.00233477569</v>
+        <v>0.00353747156</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>0.078342544</v>
+        <v>0.0862746296</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>67.7344131</v>
+        <v>16.9951775</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>257.012601</v>
+        <v>80.2613222</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.994193227</v>
+        <v>0.993829985</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>5.20132428E-119</v>
+        <v>2.02182318E-117</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.66649505</v>
+        <v>0.172428126</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>0.978016692</v>
+        <v>0.97723979</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>0.996537165</v>
+        <v>0.995835134</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>0.0739502088</v>
+        <v>0.0848107867</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.0200685791</v>
+        <v>0.0214533096</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>0.00241191145</v>
+        <v>0.00333519257</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>0.0782721384</v>
+        <v>0.0870187602</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>10</v>
@@ -1038,43 +1053,43 @@
         <v>100</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>33.8656495</v>
+        <v>31.825564</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>180.087538</v>
+        <v>124.459401</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.994192396</v>
+        <v>0.993744975</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>5.24641517E-119</v>
+        <v>4.61531101E-117</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>0.333256253</v>
+        <v>0.325130581</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>0.976412106</v>
+        <v>0.977467291</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>0.995058795</v>
+        <v>0.996121802</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>0.0787937614</v>
+        <v>0.0780705251</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0.0203622963</v>
+        <v>0.0205017417</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>0.00306691014</v>
+        <v>0.00284306911</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>0.0805108108</v>
+        <v>0.0824637085</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1082,54 +1097,54 @@
         <v>50</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>34.1220469</v>
+        <v>17.9964059</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>176.951177</v>
+        <v>106.021804</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.993861114</v>
+        <v>0.993539163</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>1.49019191E-117</v>
+        <v>3.25230201E-116</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>0.345309826</v>
+        <v>0.186880891</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>0.97667356</v>
+        <v>0.976548837</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>0.995370828</v>
+        <v>0.995654081</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>0.0791442364</v>
+        <v>0.0929133865</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.0203490876</v>
+        <v>0.02176546</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>0.00293011233</v>
+        <v>0.00308906454</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>0.0810683351</v>
+        <v>0.0929335233</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>10</v>
@@ -1138,43 +1153,43 @@
         <v>100</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>35.3707956</v>
+        <v>33.623045</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>152.984817</v>
+        <v>124.327703</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.994805625</v>
+        <v>0.993499487</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>6.24630276E-122</v>
+        <v>4.70483133E-116</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0.32902647</v>
+        <v>0.350234233</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>0.976863269</v>
+        <v>0.977953192</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>0.995460971</v>
+        <v>0.996515071</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>0.0776300527</v>
+        <v>0.0773352245</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>0.0204761078</v>
+        <v>0.0205599328</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>0.00291449959</v>
+        <v>0.00282408581</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>0.0798644296</v>
+        <v>0.0813045315</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,49 +1197,49 @@
         <v>50</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>34.3101783</v>
+        <v>17.8107522</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>143.926887</v>
+        <v>115.273064</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.994632431</v>
+        <v>0.992964724</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>4.52063332E-121</v>
+        <v>5.53225214E-114</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>0.324479991</v>
+        <v>0.193083932</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>0.977581509</v>
+        <v>0.976566369</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>0.99643242</v>
+        <v>0.995591949</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>0.0782601158</v>
+        <v>0.0932472527</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>0.0206584195</v>
+        <v>0.0218759577</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>0.00249965074</v>
+        <v>0.00327044</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>0.0815234005</v>
+        <v>0.0926289029</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,7 +1247,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>100</v>
@@ -1244,37 +1259,37 @@
         <v>0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>17.7799027</v>
+        <v>66.0635875</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>124.123492</v>
+        <v>257.278446</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.991777796</v>
+        <v>0.992952801</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>6.66868942E-110</v>
+        <v>6.12689072E-114</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>0.208562819</v>
+        <v>0.716799397</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>0.975868297</v>
+        <v>0.978056207</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>0.994910316</v>
+        <v>0.996635175</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>0.0942174365</v>
+        <v>0.0748462704</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>0.021783544</v>
+        <v>0.0201234068</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>0.00340637038</v>
+        <v>0.00238896342</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>0.092296189</v>
+        <v>0.07961665</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,152 +1344,152 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>17.8107522</v>
+        <v>69.0907924</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>115.273064</v>
+        <v>266.054611</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.992964724</v>
+        <v>0.992776195</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>5.53225214E-114</v>
+        <v>2.72477444E-113</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0.193083932</v>
+        <v>0.759081474</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>0.976566369</v>
+        <v>0.978311009</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>0.995591949</v>
+        <v>0.997614813</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>0.0932472527</v>
+        <v>0.0780608636</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.0218759577</v>
+        <v>0.0202634488</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>0.00327044</v>
+        <v>0.00193068308</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>0.0926289029</v>
+        <v>0.0833871193</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>17.9964059</v>
+        <v>35.9857889</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>106.021804</v>
+        <v>168.735398</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.993539163</v>
+        <v>0.99254784</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>3.25230201E-116</v>
+        <v>1.77887626E-112</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0.186880891</v>
+        <v>0.401635739</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>0.976548837</v>
+        <v>0.978378531</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>0.995654081</v>
+        <v>0.998273525</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>0.0929133865</v>
+        <v>0.0813821449</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>0.02176546</v>
+        <v>0.020654438</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>0.00308906454</v>
+        <v>0.00144139141</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>0.0929335233</v>
+        <v>0.084325072</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>69.0907924</v>
+        <v>17.2133539</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>266.054611</v>
+        <v>113.632099</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.992776195</v>
+        <v>0.992498376</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>2.72477444E-113</v>
+        <v>2.65056899E-112</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0.759081474</v>
+        <v>0.192761208</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>0.978311009</v>
+        <v>0.976861773</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>0.997614813</v>
+        <v>0.995306996</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>0.0780608636</v>
+        <v>0.0868892023</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>0.0202634488</v>
+        <v>0.0215252002</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>0.00193068308</v>
+        <v>0.00349920741</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>0.0833871193</v>
+        <v>0.0860864218</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1482,49 +1497,49 @@
         <v>60</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>72.3430132</v>
+        <v>33.361489</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>264.84644</v>
+        <v>159.201724</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.993879033</v>
+        <v>0.992385312</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>1.24928498E-117</v>
+        <v>6.53061488E-112</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0.731020893</v>
+        <v>0.376430781</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>0.978363049</v>
+        <v>0.978048359</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>0.997213166</v>
+        <v>0.997716351</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>0.0760341657</v>
+        <v>0.082560772</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>0.0204679336</v>
+        <v>0.0207813029</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>0.00230096525</v>
+        <v>0.00181578958</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>0.0802644475</v>
+        <v>0.0864743636</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1582,49 +1597,49 @@
         <v>60</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>65.5813798</v>
+        <v>33.4791365</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>244.68466</v>
+        <v>168.412118</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.991995015</v>
+        <v>0.992111254</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>1.32841463E-110</v>
+        <v>5.50158561E-111</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.758931811</v>
+        <v>0.384575814</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>0.978441803</v>
+        <v>0.978274683</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>0.9978785</v>
+        <v>0.997807905</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>0.0798875531</v>
+        <v>0.080607212</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>0.0204794247</v>
+        <v>0.0205084573</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>0.00178209991</v>
+        <v>0.00163943478</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>0.0864886023</v>
+        <v>0.0843906645</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1632,99 +1647,99 @@
         <v>60</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>35.9857889</v>
+        <v>65.5813798</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>168.735398</v>
+        <v>244.68466</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.99254784</v>
+        <v>0.991995015</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>1.77887626E-112</v>
+        <v>1.32841463E-110</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.401635739</v>
+        <v>0.758931811</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>0.978378531</v>
+        <v>0.978441803</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>0.998273525</v>
+        <v>0.9978785</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>0.0813821449</v>
+        <v>0.0798875531</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>0.020654438</v>
+        <v>0.0204794247</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>0.00144139141</v>
+        <v>0.00178209991</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>0.084325072</v>
+        <v>0.0864886023</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>33.4791365</v>
+        <v>17.7799027</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>168.412118</v>
+        <v>124.123492</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.992111254</v>
+        <v>0.991777796</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>5.50158561E-111</v>
+        <v>6.66868942E-110</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>0.384575814</v>
+        <v>0.208562819</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>0.978274683</v>
+        <v>0.975868297</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>0.997807905</v>
+        <v>0.994910316</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>0.080607212</v>
+        <v>0.0942174365</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>0.0205084573</v>
+        <v>0.021783544</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>0.00163943478</v>
+        <v>0.00340637038</v>
       </c>
       <c r="P31" s="0" t="n">
-        <v>0.0843906645</v>
+        <v>0.092296189</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,7 +1747,7 @@
         <v>60</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>100</v>
@@ -1744,37 +1759,37 @@
         <v>0</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>35.0457977</v>
+        <v>16.3120271</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>346.514358</v>
+        <v>98.6647755</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.988213736</v>
+        <v>0.991305122</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>1.73775027E-100</v>
+        <v>1.93490098E-108</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>0.493528218</v>
+        <v>0.196837819</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>0.976717675</v>
+        <v>0.975978655</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>0.99550827</v>
+        <v>0.995248631</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>0.0879752124</v>
+        <v>0.0916212514</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>0.020673343</v>
+        <v>0.0217539936</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>0.00307144963</v>
+        <v>0.00342276143</v>
       </c>
       <c r="P32" s="0" t="n">
-        <v>0.0826803228</v>
+        <v>0.0936671297</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,49 +1797,49 @@
         <v>60</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>33.361489</v>
+        <v>16.969536</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>159.201724</v>
+        <v>103.224663</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.992385312</v>
+        <v>0.991252065</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>6.53061488E-112</v>
+        <v>2.79143278E-108</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0.376430781</v>
+        <v>0.205404085</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>0.978048359</v>
+        <v>0.976246001</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>0.997716351</v>
+        <v>0.995145363</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>0.082560772</v>
+        <v>0.0903104723</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>0.0207813029</v>
+        <v>0.021406319</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>0.00181578958</v>
+        <v>0.00343455573</v>
       </c>
       <c r="P33" s="0" t="n">
-        <v>0.0864743636</v>
+        <v>0.0909470001</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,48 +1853,48 @@
         <v>100</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>14.1107874</v>
+        <v>17.1985475</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>114.225328</v>
+        <v>127.055179</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.988406303</v>
+        <v>0.991046674</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>6.45090377E-101</v>
+        <v>1.12972993E-107</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.197054613</v>
+        <v>0.210638567</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>0.976043341</v>
+        <v>0.976182103</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>0.995889065</v>
+        <v>0.995152257</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>0.0998596245</v>
+        <v>0.095457098</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>0.0213848221</v>
+        <v>0.0217300748</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>0.00277614119</v>
+        <v>0.00355269496</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>0.100316107</v>
+        <v>0.0946521048</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>15</v>
@@ -1888,43 +1903,43 @@
         <v>100</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>16.969536</v>
+        <v>23.1571578</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>103.224663</v>
+        <v>307.711954</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.991252065</v>
+        <v>0.989476313</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>2.79143278E-108</v>
+        <v>1.90118588E-103</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0.205404085</v>
+        <v>0.307850965</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>0.976246001</v>
+        <v>0.967599808</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>0.995145363</v>
+        <v>0.987455213</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>0.0903104723</v>
+        <v>0.13824584</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>0.021406319</v>
+        <v>0.0261409168</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>0.00343455573</v>
+        <v>0.0076682988</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>0.0909470001</v>
+        <v>0.113263504</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,43 +1953,43 @@
         <v>100</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>16.3120271</v>
+        <v>14.1107874</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>98.6647755</v>
+        <v>114.225328</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.991305122</v>
+        <v>0.988406303</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>1.93490098E-108</v>
+        <v>6.45090377E-101</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0.196837819</v>
+        <v>0.197054613</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>0.975978655</v>
+        <v>0.976043341</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>0.995248631</v>
+        <v>0.995889065</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>0.0916212514</v>
+        <v>0.0998596245</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>0.0217539936</v>
+        <v>0.0213848221</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>0.00342276143</v>
+        <v>0.00277614119</v>
       </c>
       <c r="P36" s="0" t="n">
-        <v>0.0936671297</v>
+        <v>0.100316107</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,49 +1997,49 @@
         <v>60</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>17.1985475</v>
+        <v>35.0457977</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>127.055179</v>
+        <v>346.514358</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.991046674</v>
+        <v>0.988213736</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>1.12972993E-107</v>
+        <v>1.73775027E-100</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.210638567</v>
+        <v>0.493528218</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>0.976182103</v>
+        <v>0.976717675</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>0.995152257</v>
+        <v>0.99550827</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>0.095457098</v>
+        <v>0.0879752124</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>0.0217300748</v>
+        <v>0.020673343</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>0.00355269496</v>
+        <v>0.00307144963</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>0.0946521048</v>
+        <v>0.0826803228</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
